--- a/Code/Results/Cases/Case_9_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.22030513824928</v>
+        <v>14.14795305623451</v>
       </c>
       <c r="C2">
-        <v>9.299225763974766</v>
+        <v>8.878165594212009</v>
       </c>
       <c r="D2">
-        <v>5.560348766035887</v>
+        <v>5.605453034730914</v>
       </c>
       <c r="E2">
-        <v>9.369382100983255</v>
+        <v>9.144446845419795</v>
       </c>
       <c r="F2">
-        <v>18.24798871168301</v>
+        <v>17.61127987405327</v>
       </c>
       <c r="G2">
-        <v>22.92003679026118</v>
+        <v>21.28768145411791</v>
       </c>
       <c r="H2">
-        <v>2.350431775490658</v>
+        <v>2.233496421658488</v>
       </c>
       <c r="I2">
-        <v>3.319563770059427</v>
+        <v>3.172155750456308</v>
       </c>
       <c r="J2">
-        <v>9.344289325319677</v>
+        <v>9.450659061661337</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.5189424028009</v>
       </c>
       <c r="M2">
-        <v>11.72929100573229</v>
+        <v>10.14533144689783</v>
       </c>
       <c r="N2">
-        <v>7.049775758445111</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.84884030833937</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.183871798907758</v>
       </c>
       <c r="Q2">
-        <v>15.19688589189199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.68160465495535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.29231183602508</v>
+        <v>13.24989513562941</v>
       </c>
       <c r="C3">
-        <v>9.222311241152491</v>
+        <v>8.742152602786161</v>
       </c>
       <c r="D3">
-        <v>5.356299419776998</v>
+        <v>5.378333792504209</v>
       </c>
       <c r="E3">
-        <v>9.120021806132264</v>
+        <v>8.925082086071825</v>
       </c>
       <c r="F3">
-        <v>18.03153267396036</v>
+        <v>17.45303263908284</v>
       </c>
       <c r="G3">
-        <v>22.72171156728591</v>
+        <v>21.22470247217911</v>
       </c>
       <c r="H3">
-        <v>2.531881604227828</v>
+        <v>2.40227202626227</v>
       </c>
       <c r="I3">
-        <v>3.464965556821604</v>
+        <v>3.301470733006166</v>
       </c>
       <c r="J3">
-        <v>9.385998984521301</v>
+        <v>9.474603971412385</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.67055146161935</v>
       </c>
       <c r="M3">
-        <v>11.14096161615196</v>
+        <v>10.19407615967291</v>
       </c>
       <c r="N3">
-        <v>6.774672259297137</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.24415528824269</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.910674454899701</v>
       </c>
       <c r="Q3">
-        <v>15.20830793387098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.73145005309633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68663139772988</v>
+        <v>12.66397213899374</v>
       </c>
       <c r="C4">
-        <v>9.174148114952018</v>
+        <v>8.658308966117357</v>
       </c>
       <c r="D4">
-        <v>5.226613533462809</v>
+        <v>5.233927075559476</v>
       </c>
       <c r="E4">
-        <v>8.961625567802283</v>
+        <v>8.785514702296084</v>
       </c>
       <c r="F4">
-        <v>17.90482625762143</v>
+        <v>17.36124231620054</v>
       </c>
       <c r="G4">
-        <v>22.60877346105806</v>
+        <v>21.19657170510508</v>
       </c>
       <c r="H4">
-        <v>2.647520659728414</v>
+        <v>2.50987296594368</v>
       </c>
       <c r="I4">
-        <v>3.558296853465174</v>
+        <v>3.384779020370841</v>
       </c>
       <c r="J4">
-        <v>9.414063787565299</v>
+        <v>9.490222627881744</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.76529389043154</v>
       </c>
       <c r="M4">
-        <v>10.76317199541355</v>
+        <v>10.24025434685018</v>
       </c>
       <c r="N4">
-        <v>6.600176186435486</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.85596364944592</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.737756405354406</v>
       </c>
       <c r="Q4">
-        <v>15.22044771612817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.76621455023823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.42792974363949</v>
+        <v>12.41378739624069</v>
       </c>
       <c r="C5">
-        <v>9.155765242214919</v>
+        <v>8.626510113411905</v>
       </c>
       <c r="D5">
-        <v>5.174283991555842</v>
+        <v>5.175477302345207</v>
       </c>
       <c r="E5">
-        <v>8.892645319793324</v>
+        <v>8.724446357867052</v>
       </c>
       <c r="F5">
-        <v>17.84687054092196</v>
+        <v>17.31760166883159</v>
       </c>
       <c r="G5">
-        <v>22.55138408437366</v>
+        <v>21.17460885656108</v>
       </c>
       <c r="H5">
-        <v>2.696028347478339</v>
+        <v>2.555028965966017</v>
       </c>
       <c r="I5">
-        <v>3.599963119862708</v>
+        <v>3.422771857273189</v>
       </c>
       <c r="J5">
-        <v>9.423911820541207</v>
+        <v>9.494707247347268</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.79895549894601</v>
       </c>
       <c r="M5">
-        <v>10.60711176849632</v>
+        <v>10.26010846603937</v>
       </c>
       <c r="N5">
-        <v>6.528483561010574</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.69553939045398</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.666777453562073</v>
       </c>
       <c r="Q5">
-        <v>15.22114089046375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.77617498135252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3809617818655</v>
+        <v>12.36838426997608</v>
       </c>
       <c r="C6">
-        <v>9.154561413397477</v>
+        <v>8.62426862701906</v>
       </c>
       <c r="D6">
-        <v>5.167476479486051</v>
+        <v>5.167654878014355</v>
       </c>
       <c r="E6">
-        <v>8.877256550743953</v>
+        <v>8.71055831528658</v>
       </c>
       <c r="F6">
-        <v>17.82768472689333</v>
+        <v>17.30117200010734</v>
       </c>
       <c r="G6">
-        <v>22.5254111728729</v>
+        <v>21.15517577961493</v>
       </c>
       <c r="H6">
-        <v>2.70452415994679</v>
+        <v>2.56295164006291</v>
       </c>
       <c r="I6">
-        <v>3.610284939794012</v>
+        <v>3.433073404542678</v>
       </c>
       <c r="J6">
-        <v>9.422902797422777</v>
+        <v>9.492890371245943</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.79802767958478</v>
       </c>
       <c r="M6">
-        <v>10.58334708397969</v>
+        <v>10.25997538921622</v>
       </c>
       <c r="N6">
-        <v>6.517418234666204</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.67098713607679</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.655790894530041</v>
       </c>
       <c r="Q6">
-        <v>15.21459903340161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.77151429778546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.67394593537649</v>
+        <v>12.65203473598913</v>
       </c>
       <c r="C7">
-        <v>9.179041820955502</v>
+        <v>8.664807593857139</v>
       </c>
       <c r="D7">
-        <v>5.231181118061137</v>
+        <v>5.24151663721346</v>
       </c>
       <c r="E7">
-        <v>8.950274429668434</v>
+        <v>8.774630089310955</v>
       </c>
       <c r="F7">
-        <v>17.87779304277133</v>
+        <v>17.32159659636608</v>
       </c>
       <c r="G7">
-        <v>22.56289545113233</v>
+        <v>21.21840460382069</v>
       </c>
       <c r="H7">
-        <v>2.649176560908453</v>
+        <v>2.511883881676598</v>
       </c>
       <c r="I7">
-        <v>3.567689592992069</v>
+        <v>3.396133817580956</v>
       </c>
       <c r="J7">
-        <v>9.406890542050613</v>
+        <v>9.452588877915417</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.74181795926229</v>
       </c>
       <c r="M7">
-        <v>10.76752250738664</v>
+        <v>10.22607709797281</v>
       </c>
       <c r="N7">
-        <v>6.601692901293209</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.85932315407167</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.738853344110115</v>
       </c>
       <c r="Q7">
-        <v>15.202106558187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.73953798007704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.89648958683134</v>
+        <v>13.83550163704437</v>
       </c>
       <c r="C8">
-        <v>9.280042441839107</v>
+        <v>8.838412683971358</v>
       </c>
       <c r="D8">
-        <v>5.497694680442669</v>
+        <v>5.544899654610907</v>
       </c>
       <c r="E8">
-        <v>9.271257754038187</v>
+        <v>9.056936341006839</v>
       </c>
       <c r="F8">
-        <v>18.13801940134308</v>
+        <v>17.47772632054945</v>
       </c>
       <c r="G8">
-        <v>22.79106475354805</v>
+        <v>21.42497488452798</v>
       </c>
       <c r="H8">
-        <v>2.41336894470855</v>
+        <v>2.29339950687713</v>
       </c>
       <c r="I8">
-        <v>3.380103568837514</v>
+        <v>3.230564908087133</v>
       </c>
       <c r="J8">
-        <v>9.348567619794787</v>
+        <v>9.349899286760371</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.53025453451263</v>
       </c>
       <c r="M8">
-        <v>11.53803790387798</v>
+        <v>10.12819038641202</v>
       </c>
       <c r="N8">
-        <v>6.959272811164728</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.64948960159195</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.092860246469379</v>
       </c>
       <c r="Q8">
-        <v>15.17566998513474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.64416409684496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.02510169951364</v>
+        <v>15.89625763501951</v>
       </c>
       <c r="C9">
-        <v>9.461432325625101</v>
+        <v>9.165413284964194</v>
       </c>
       <c r="D9">
-        <v>5.974995818401655</v>
+        <v>6.078233710417578</v>
       </c>
       <c r="E9">
-        <v>9.874311876425445</v>
+        <v>9.587484393178411</v>
       </c>
       <c r="F9">
-        <v>18.74239899067819</v>
+        <v>17.92171184337412</v>
       </c>
       <c r="G9">
-        <v>23.38886283956254</v>
+        <v>21.75219877620214</v>
       </c>
       <c r="H9">
-        <v>1.982284918182048</v>
+        <v>1.892814677465837</v>
       </c>
       <c r="I9">
-        <v>3.029586408254504</v>
+        <v>2.917972038406592</v>
       </c>
       <c r="J9">
-        <v>9.267222034511423</v>
+        <v>9.276566416694115</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.17953479145038</v>
       </c>
       <c r="M9">
-        <v>12.90341817708191</v>
+        <v>10.10317702403537</v>
       </c>
       <c r="N9">
-        <v>7.609346039409242</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.05315043408233</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.740202750214004</v>
       </c>
       <c r="Q9">
-        <v>15.19862959925149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.55670108779035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.38778321307818</v>
+        <v>17.22019517642337</v>
       </c>
       <c r="C10">
-        <v>9.617730027501187</v>
+        <v>9.435805763203104</v>
       </c>
       <c r="D10">
-        <v>6.327501764595523</v>
+        <v>6.482428517722116</v>
       </c>
       <c r="E10">
-        <v>10.11218207200944</v>
+        <v>9.783189312688201</v>
       </c>
       <c r="F10">
-        <v>19.08691132694659</v>
+        <v>18.08768242016603</v>
       </c>
       <c r="G10">
-        <v>23.65094608800426</v>
+        <v>22.22931919418464</v>
       </c>
       <c r="H10">
-        <v>1.718187987802276</v>
+        <v>1.651924940639037</v>
       </c>
       <c r="I10">
-        <v>2.801757658089089</v>
+        <v>2.719862576322178</v>
       </c>
       <c r="J10">
-        <v>9.183564262637658</v>
+        <v>9.033547047985225</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.84769774740679</v>
       </c>
       <c r="M10">
-        <v>13.84265145100504</v>
+        <v>10.06897738784374</v>
       </c>
       <c r="N10">
-        <v>7.926609705699112</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.01192436424708</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.054521368882318</v>
       </c>
       <c r="Q10">
-        <v>15.15064657725834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.38326875161206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.73342044663255</v>
+        <v>17.58549113526429</v>
       </c>
       <c r="C11">
-        <v>9.984680752328851</v>
+        <v>9.917338565304915</v>
       </c>
       <c r="D11">
-        <v>6.694121271369734</v>
+        <v>6.882938551744536</v>
       </c>
       <c r="E11">
-        <v>8.843961680296747</v>
+        <v>8.568578991261719</v>
       </c>
       <c r="F11">
-        <v>18.21360213847895</v>
+        <v>17.13869565724907</v>
       </c>
       <c r="G11">
-        <v>21.98690196873666</v>
+        <v>21.49284214292479</v>
       </c>
       <c r="H11">
-        <v>2.753115290736812</v>
+        <v>2.717122062879921</v>
       </c>
       <c r="I11">
-        <v>2.760625920885556</v>
+        <v>2.693113122659963</v>
       </c>
       <c r="J11">
-        <v>8.850651820502586</v>
+        <v>8.484861585829901</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.2633544554168</v>
       </c>
       <c r="M11">
-        <v>14.42644597199941</v>
+        <v>9.499891001033985</v>
       </c>
       <c r="N11">
-        <v>6.979004146103229</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.57474478544212</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.094333861605323</v>
       </c>
       <c r="Q11">
-        <v>14.38606856584164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.59016458475823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.75882664588345</v>
+        <v>17.63438782206948</v>
       </c>
       <c r="C12">
-        <v>10.3431831544681</v>
+        <v>10.31830746306016</v>
       </c>
       <c r="D12">
-        <v>6.930982995901635</v>
+        <v>7.127228410072769</v>
       </c>
       <c r="E12">
-        <v>7.938603832895883</v>
+        <v>7.720530679821012</v>
       </c>
       <c r="F12">
-        <v>17.4290372064882</v>
+        <v>16.37558681384014</v>
       </c>
       <c r="G12">
-        <v>20.58692500985522</v>
+        <v>20.57374690848512</v>
       </c>
       <c r="H12">
-        <v>4.148804497227547</v>
+        <v>4.1253036212874</v>
       </c>
       <c r="I12">
-        <v>2.751819192233532</v>
+        <v>2.686582899848987</v>
       </c>
       <c r="J12">
-        <v>8.601356166270731</v>
+        <v>8.223747877132897</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.92012064297019</v>
       </c>
       <c r="M12">
-        <v>14.72370265260755</v>
+        <v>9.078861323441565</v>
       </c>
       <c r="N12">
-        <v>6.150295828111051</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.85155596734505</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.256356059982111</v>
       </c>
       <c r="Q12">
-        <v>13.78283473467305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.02603485828978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.52987263097975</v>
+        <v>17.43372820870683</v>
       </c>
       <c r="C13">
-        <v>10.71324237992904</v>
+        <v>10.69136662606736</v>
       </c>
       <c r="D13">
-        <v>7.093194269417372</v>
+        <v>7.268875300450437</v>
       </c>
       <c r="E13">
-        <v>7.308134739290264</v>
+        <v>7.152970532447641</v>
       </c>
       <c r="F13">
-        <v>16.61871489583448</v>
+        <v>15.69508515973531</v>
       </c>
       <c r="G13">
-        <v>19.23444499416427</v>
+        <v>19.22428568317507</v>
       </c>
       <c r="H13">
-        <v>5.578667797840797</v>
+        <v>5.559452475219301</v>
       </c>
       <c r="I13">
-        <v>2.782604069371419</v>
+        <v>2.712625953501168</v>
       </c>
       <c r="J13">
-        <v>8.391337866673956</v>
+        <v>8.139720879473805</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.70462621503878</v>
       </c>
       <c r="M13">
-        <v>14.8340271316258</v>
+        <v>8.747384981787798</v>
       </c>
       <c r="N13">
-        <v>5.374279959140637</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.94118186044554</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.473977143226604</v>
       </c>
       <c r="Q13">
-        <v>13.24179321500756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.59497362558435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.2491685302554</v>
+        <v>17.1755033901105</v>
       </c>
       <c r="C14">
-        <v>10.98763169637034</v>
+        <v>10.94921538667207</v>
       </c>
       <c r="D14">
-        <v>7.176281560021009</v>
+        <v>7.324460638310781</v>
       </c>
       <c r="E14">
-        <v>7.068898593987595</v>
+        <v>6.957218264730239</v>
       </c>
       <c r="F14">
-        <v>16.03315315806728</v>
+        <v>15.24610440857353</v>
       </c>
       <c r="G14">
-        <v>18.30811081696774</v>
+        <v>18.10152292516069</v>
       </c>
       <c r="H14">
-        <v>6.589810018033745</v>
+        <v>6.571711068584023</v>
       </c>
       <c r="I14">
-        <v>2.824859781702844</v>
+        <v>2.749042873736863</v>
       </c>
       <c r="J14">
-        <v>8.262867651564704</v>
+        <v>8.138989650511933</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.60255633972895</v>
       </c>
       <c r="M14">
-        <v>14.82980565884613</v>
+        <v>8.562478447245244</v>
       </c>
       <c r="N14">
-        <v>4.881498319969908</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.92193794986317</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.978391309569343</v>
       </c>
       <c r="Q14">
-        <v>12.89323351855568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.34901132520641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.12231625297733</v>
+        <v>17.05539510748481</v>
       </c>
       <c r="C15">
-        <v>11.05221092835254</v>
+        <v>11.0055389576155</v>
       </c>
       <c r="D15">
-        <v>7.181978606624943</v>
+        <v>7.317935960497099</v>
       </c>
       <c r="E15">
-        <v>7.039674359718129</v>
+        <v>6.938669180538777</v>
       </c>
       <c r="F15">
-        <v>15.8782045759141</v>
+        <v>15.14393118868552</v>
       </c>
       <c r="G15">
-        <v>18.08142935559302</v>
+        <v>17.7488664525217</v>
       </c>
       <c r="H15">
-        <v>6.824983225527808</v>
+        <v>6.806633222928989</v>
       </c>
       <c r="I15">
-        <v>2.848640038886975</v>
+        <v>2.770675559214305</v>
       </c>
       <c r="J15">
-        <v>8.237744208919178</v>
+        <v>8.162619976892866</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.59155164485946</v>
       </c>
       <c r="M15">
-        <v>14.79042161403677</v>
+        <v>8.53199482837225</v>
       </c>
       <c r="N15">
-        <v>4.769348790945898</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.87874147169937</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.866298472742677</v>
       </c>
       <c r="Q15">
-        <v>12.81651030453327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.30832440203073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.59037793333807</v>
+        <v>16.53395996095731</v>
       </c>
       <c r="C16">
-        <v>10.90920451313243</v>
+        <v>10.82945726363628</v>
       </c>
       <c r="D16">
-        <v>7.013343349425398</v>
+        <v>7.104037661907098</v>
       </c>
       <c r="E16">
-        <v>7.039940362101948</v>
+        <v>6.944387389974424</v>
       </c>
       <c r="F16">
-        <v>15.86056111402042</v>
+        <v>15.28497776147007</v>
       </c>
       <c r="G16">
-        <v>18.20434457949899</v>
+        <v>17.25536985073426</v>
       </c>
       <c r="H16">
-        <v>6.623887751437291</v>
+        <v>6.600367544460391</v>
       </c>
       <c r="I16">
-        <v>2.945574447041706</v>
+        <v>2.854067618278801</v>
       </c>
       <c r="J16">
-        <v>8.313554224172716</v>
+        <v>8.409036684352179</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.73327503722198</v>
       </c>
       <c r="M16">
-        <v>14.39278574810622</v>
+        <v>8.67635691283394</v>
       </c>
       <c r="N16">
-        <v>4.760867636446091</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.48073422014471</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.864523965652263</v>
       </c>
       <c r="Q16">
-        <v>12.93916703562875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.52293490426303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32986504206013</v>
+        <v>16.26945589694941</v>
       </c>
       <c r="C17">
-        <v>10.64606768978493</v>
+        <v>10.54849905048533</v>
       </c>
       <c r="D17">
-        <v>6.83582175643316</v>
+        <v>6.911889888126681</v>
       </c>
       <c r="E17">
-        <v>7.130129349216784</v>
+        <v>7.016981079188265</v>
       </c>
       <c r="F17">
-        <v>16.16188839429505</v>
+        <v>15.61887836172498</v>
       </c>
       <c r="G17">
-        <v>18.78629308918117</v>
+        <v>17.5495478464604</v>
       </c>
       <c r="H17">
-        <v>5.901456358002119</v>
+        <v>5.872196680517302</v>
       </c>
       <c r="I17">
-        <v>2.998340531979244</v>
+        <v>2.900069747128954</v>
       </c>
       <c r="J17">
-        <v>8.438508916186167</v>
+        <v>8.600528701369585</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.90855195043133</v>
       </c>
       <c r="M17">
-        <v>14.08404361946685</v>
+        <v>8.87035888542999</v>
       </c>
       <c r="N17">
-        <v>5.006755163546182</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.17928255131721</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.116107062917703</v>
       </c>
       <c r="Q17">
-        <v>13.21452186318934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.80933770216161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28856067296397</v>
+        <v>16.21020543560999</v>
       </c>
       <c r="C18">
-        <v>10.27130064307699</v>
+        <v>10.15813866690512</v>
       </c>
       <c r="D18">
-        <v>6.630003045403772</v>
+        <v>6.709396808290213</v>
       </c>
       <c r="E18">
-        <v>7.501278163245144</v>
+        <v>7.345352457879255</v>
       </c>
       <c r="F18">
-        <v>16.78916501313165</v>
+        <v>16.20107292857447</v>
       </c>
       <c r="G18">
-        <v>19.87330404296454</v>
+        <v>18.43381165595432</v>
       </c>
       <c r="H18">
-        <v>4.676327336251084</v>
+        <v>4.63844129415572</v>
       </c>
       <c r="I18">
-        <v>3.006478203639887</v>
+        <v>2.904396128552955</v>
       </c>
       <c r="J18">
-        <v>8.628432196870385</v>
+        <v>8.798490215868345</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.16668103194027</v>
       </c>
       <c r="M18">
-        <v>13.81816875847773</v>
+        <v>9.154747243300115</v>
       </c>
       <c r="N18">
-        <v>5.562915239592802</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.92909619025298</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.677877336533117</v>
       </c>
       <c r="Q18">
-        <v>13.67349111173915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.22694608448034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4142360706446</v>
+        <v>16.30856986733685</v>
       </c>
       <c r="C19">
-        <v>9.920892206706551</v>
+        <v>9.782827954772136</v>
       </c>
       <c r="D19">
-        <v>6.432342350550829</v>
+        <v>6.525220706977097</v>
       </c>
       <c r="E19">
-        <v>8.295248865709668</v>
+        <v>8.079026452357621</v>
       </c>
       <c r="F19">
-        <v>17.59006847675152</v>
+        <v>16.90978483104316</v>
       </c>
       <c r="G19">
-        <v>21.23908518006548</v>
+        <v>19.62184054657205</v>
       </c>
       <c r="H19">
-        <v>3.24222812050011</v>
+        <v>3.189982907266795</v>
       </c>
       <c r="I19">
-        <v>2.994076244037548</v>
+        <v>2.894825426036793</v>
       </c>
       <c r="J19">
-        <v>8.852074296739854</v>
+        <v>8.995625339897536</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.47904721655705</v>
       </c>
       <c r="M19">
-        <v>13.62288879379892</v>
+        <v>9.498028095041736</v>
       </c>
       <c r="N19">
-        <v>6.393375673806998</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.75458160637898</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.514125912093892</v>
       </c>
       <c r="Q19">
-        <v>14.23349145658154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.71175092468647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01770462027875</v>
+        <v>16.86013931612544</v>
       </c>
       <c r="C20">
-        <v>9.597797605511539</v>
+        <v>9.403495358780354</v>
       </c>
       <c r="D20">
-        <v>6.252484792315648</v>
+        <v>6.384275519071604</v>
       </c>
       <c r="E20">
-        <v>10.01523443557469</v>
+        <v>9.698995600569212</v>
       </c>
       <c r="F20">
-        <v>18.91373069971596</v>
+        <v>18.01204709853202</v>
       </c>
       <c r="G20">
-        <v>23.43860632073525</v>
+        <v>21.73234989400156</v>
       </c>
       <c r="H20">
-        <v>1.788065911405731</v>
+        <v>1.714410418975113</v>
       </c>
       <c r="I20">
-        <v>2.890992046888964</v>
+        <v>2.805750830096498</v>
       </c>
       <c r="J20">
-        <v>9.18108609000628</v>
+        <v>9.177016070359015</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.90910077265286</v>
       </c>
       <c r="M20">
-        <v>13.61986831866552</v>
+        <v>10.04654187755126</v>
       </c>
       <c r="N20">
-        <v>7.845526436519637</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.78569351869154</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.974676871040131</v>
       </c>
       <c r="Q20">
-        <v>15.10246822487029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.40567307532615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.05755060243472</v>
+        <v>17.8698498503842</v>
       </c>
       <c r="C21">
-        <v>9.676304796669326</v>
+        <v>9.527374901452559</v>
       </c>
       <c r="D21">
-        <v>6.475543199296443</v>
+        <v>6.69926145978642</v>
       </c>
       <c r="E21">
-        <v>10.46077314923208</v>
+        <v>10.10134445129701</v>
       </c>
       <c r="F21">
-        <v>19.3834206870826</v>
+        <v>18.07866403989535</v>
       </c>
       <c r="G21">
-        <v>23.99622742884618</v>
+        <v>23.67098525474348</v>
       </c>
       <c r="H21">
-        <v>1.578942309073879</v>
+        <v>1.628120965696417</v>
       </c>
       <c r="I21">
-        <v>2.708789046735031</v>
+        <v>2.652192854352108</v>
       </c>
       <c r="J21">
-        <v>9.178038238817697</v>
+        <v>8.565179446867257</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.66223316172733</v>
       </c>
       <c r="M21">
-        <v>14.27855478640294</v>
+        <v>10.03339285164316</v>
       </c>
       <c r="N21">
-        <v>8.278699380509522</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.45276945456226</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.403441605872532</v>
       </c>
       <c r="Q21">
-        <v>15.21777003392899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.22931763080721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.70119272359354</v>
+        <v>18.4967168685644</v>
       </c>
       <c r="C22">
-        <v>9.731490546879353</v>
+        <v>9.612385717958157</v>
       </c>
       <c r="D22">
-        <v>6.622852540483931</v>
+        <v>6.90791820364296</v>
       </c>
       <c r="E22">
-        <v>10.66921494137966</v>
+        <v>10.28680746312652</v>
       </c>
       <c r="F22">
-        <v>19.66594210027025</v>
+        <v>18.08623498685989</v>
       </c>
       <c r="G22">
-        <v>24.31885822491764</v>
+        <v>25.03485196304186</v>
       </c>
       <c r="H22">
-        <v>1.718772811375145</v>
+        <v>1.753510635569052</v>
       </c>
       <c r="I22">
-        <v>2.582886625781167</v>
+        <v>2.541985597663379</v>
       </c>
       <c r="J22">
-        <v>9.170811138568146</v>
+        <v>8.206433217397034</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.49050580413164</v>
       </c>
       <c r="M22">
-        <v>14.69623382055596</v>
+        <v>10.01500251358352</v>
       </c>
       <c r="N22">
-        <v>8.485850921012524</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.87421371409949</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.607477345269583</v>
       </c>
       <c r="Q22">
-        <v>15.27863471149771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.08801236057062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36833647382089</v>
+        <v>18.17182837784194</v>
       </c>
       <c r="C23">
-        <v>9.69464044637057</v>
+        <v>9.557825459150674</v>
       </c>
       <c r="D23">
-        <v>6.53928848021266</v>
+        <v>6.784612883635803</v>
       </c>
       <c r="E23">
-        <v>10.56883672752137</v>
+        <v>10.19777182372988</v>
       </c>
       <c r="F23">
-        <v>19.54257348756943</v>
+        <v>18.14188746925016</v>
       </c>
       <c r="G23">
-        <v>24.19442708441014</v>
+        <v>24.17365552284983</v>
       </c>
       <c r="H23">
-        <v>1.645303643566705</v>
+        <v>1.688333735829569</v>
       </c>
       <c r="I23">
-        <v>2.6375618096749</v>
+        <v>2.585357740135752</v>
       </c>
       <c r="J23">
-        <v>9.182748410572156</v>
+        <v>8.447242997585365</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.6059597145838</v>
       </c>
       <c r="M23">
-        <v>14.46870551793407</v>
+        <v>10.05637804635168</v>
       </c>
       <c r="N23">
-        <v>8.373443031099876</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.64612590264703</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.497340418426196</v>
       </c>
       <c r="Q23">
-        <v>15.26628415228655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.20620655028365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.03459622779693</v>
+        <v>16.87395366833053</v>
       </c>
       <c r="C24">
-        <v>9.565900739848178</v>
+        <v>9.35500554083932</v>
       </c>
       <c r="D24">
-        <v>6.221692727127207</v>
+        <v>6.353929231373945</v>
       </c>
       <c r="E24">
-        <v>10.16102604616451</v>
+        <v>9.838261559177072</v>
       </c>
       <c r="F24">
-        <v>19.04198183077116</v>
+        <v>18.13053925085423</v>
       </c>
       <c r="G24">
-        <v>23.66566952479862</v>
+        <v>21.92880843067761</v>
       </c>
       <c r="H24">
-        <v>1.766721550840809</v>
+        <v>1.692874385799249</v>
       </c>
       <c r="I24">
-        <v>2.871164751299603</v>
+        <v>2.782506203281775</v>
       </c>
       <c r="J24">
-        <v>9.220546598337885</v>
+        <v>9.215383799655143</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.97444180377245</v>
       </c>
       <c r="M24">
-        <v>13.58364908614309</v>
+        <v>10.11629385918599</v>
       </c>
       <c r="N24">
-        <v>7.938610689749082</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.75162863425792</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.068734270205843</v>
       </c>
       <c r="Q24">
-        <v>15.19940599761125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.49323721844696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.46550750351874</v>
+        <v>15.35412539135022</v>
       </c>
       <c r="C25">
-        <v>9.423564746970312</v>
+        <v>9.096871367872843</v>
       </c>
       <c r="D25">
-        <v>5.858784398639644</v>
+        <v>5.943413205241256</v>
       </c>
       <c r="E25">
-        <v>9.698986240943611</v>
+        <v>9.432270311869273</v>
       </c>
       <c r="F25">
-        <v>18.52874352720279</v>
+        <v>17.77290676725379</v>
       </c>
       <c r="G25">
-        <v>23.1411902155339</v>
+        <v>21.48541594146806</v>
       </c>
       <c r="H25">
-        <v>2.097012396491241</v>
+        <v>1.998902575196103</v>
       </c>
       <c r="I25">
-        <v>3.137315974078116</v>
+        <v>3.017976107648197</v>
       </c>
       <c r="J25">
-        <v>9.274028951168813</v>
+        <v>9.32591312852362</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.25552454292964</v>
       </c>
       <c r="M25">
-        <v>12.55926103766847</v>
+        <v>10.07892529094239</v>
       </c>
       <c r="N25">
-        <v>7.442925863044164</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.69972094785882</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.574434089577098</v>
       </c>
       <c r="Q25">
-        <v>15.15520347960822</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.55938423933645</v>
       </c>
     </row>
   </sheetData>
